--- a/TestData/Production/Web_POS/Order/mode_of_payment_order_test_data.xlsx
+++ b/TestData/Production/Web_POS/Order/mode_of_payment_order_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samarth\Downloads\TestData\TestData\Production\Web_POS\Order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\production api\zwing-qa-automation\TestData\Production\Web_POS\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -138,13 +138,13 @@
     <t>TC_100</t>
   </si>
   <si>
-    <t>m2mrIM</t>
+    <t>HZumo6</t>
   </si>
   <si>
     <t>TC_101</t>
   </si>
   <si>
-    <t>1mzWPD</t>
+    <t>YLoVsM</t>
   </si>
   <si>
     <t>TC_102</t>
@@ -153,10 +153,14 @@
     <t>239060824nUH</t>
   </si>
   <si>
-    <t>userone_p3</t>
+    <t>O_MOP_user1_p3</t>
   </si>
   <si>
-    <t>wkgVcw</t>
+    <t xml:space="preserve">Kv5pBk_x000d_
+</t>
+  </si>
+  <si>
+    <t>9638574108</t>
   </si>
   <si>
     <t>TC_106</t>
@@ -270,12 +274,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,8 +499,8 @@
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="J1">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
@@ -891,18 +898,20 @@
       <c r="O7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="2"/>
+      <c r="S7" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -957,7 +966,7 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
@@ -1012,7 +1021,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -1039,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>29</v>
@@ -1067,7 +1076,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
@@ -1122,7 +1131,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -1177,7 +1186,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
@@ -1232,7 +1241,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
@@ -1287,7 +1296,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -1342,7 +1351,7 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
@@ -1397,7 +1406,7 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
@@ -1452,7 +1461,7 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -1507,7 +1516,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1530,7 +1539,7 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
